--- a/data/trans_camb/P2405-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2405-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 2,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 1,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,54</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,62%</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,2; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,87; 500,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 1,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 1,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 1,41</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>424,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>270,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>212,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>305,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,08%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,43; inf</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,67; 1643,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,94; 1403,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 1343,81</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 1,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 1,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 0,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 0,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 0,77</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,48%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,03; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,11; 831,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,41; 1006,49</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; -0,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 1,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; -0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,57</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-84,79%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-9,59%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,68; 330,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,57; 282,12</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 0,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 0,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 0,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 0,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 0,35</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,51%</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 300,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,0; 243,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,07; 351,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,62; 211,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; 168,24</t>
         </is>
       </c>
     </row>
